--- a/数据整理/stocks/其他/301080-百普赛斯.xlsx
+++ b/数据整理/stocks/其他/301080-百普赛斯.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,13 +1053,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.47</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/301080-百普赛斯.xlsx
+++ b/数据整理/stocks/其他/301080-百普赛斯.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2920</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -541,454 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160926</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2361</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000339</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城医疗保健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4027</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011673</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3381</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2916</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012045</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2279</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009798</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>78.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2051</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008786</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城健康生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1819</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1636</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>23.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011674</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0285</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012046</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.47</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +891,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +931,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +969,454 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.47</v>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
